--- a/xlsx/优圣美地国家公园_intext.xlsx
+++ b/xlsx/优圣美地国家公园_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="810">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="802">
   <si>
     <t>优圣美地国家公园</t>
   </si>
@@ -41,7 +41,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E</t>
@@ -65,7 +65,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%BE%B7%E6%8B%89%E7%B8%A3</t>
   </si>
   <si>
-    <t>馬德拉縣</t>
+    <t>马德拉县</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E7%90%86%E5%9D%90%E6%A0%87</t>
@@ -89,7 +89,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E9%81%BA%E7%94%A2%E5%A7%94%E5%93%A1%E6%9C%83</t>
   </si>
   <si>
-    <t>世界遺產委員會</t>
+    <t>世界遗产委员会</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/List_of_World_Heritage_Sites_in_the_Americas</t>
@@ -101,7 +101,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E8%8F%AF%E9%81%94%E5%B1%B1%E8%84%88_(%E7%BE%8E%E5%9C%8B)</t>
   </si>
   <si>
-    <t>內華達山脈 (美國)</t>
+    <t>内华达山脉 (美国)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E5%A1%9E%E7%B1%B3%E8%92%82%E8%B0%B7</t>
@@ -113,7 +113,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8A%B1%E5%B4%97%E5%B2%A9</t>
   </si>
   <si>
-    <t>花崗岩</t>
+    <t>花岗岩</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%80%91%E5%B8%83</t>
@@ -137,7 +137,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E5%A4%9A%E6%A8%A3%E6%80%A7</t>
   </si>
   <si>
-    <t>生物多樣性</t>
+    <t>生物多样性</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/wilderness_area</t>
@@ -155,7 +155,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8B%95%E7%89%A9%E6%A3%B2%E5%9C%B0</t>
   </si>
   <si>
-    <t>動物棲地</t>
+    <t>动物栖地</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A4%8D%E7%89%A9</t>
@@ -227,7 +227,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BD%9C%E6%A5%AD%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>作業系統</t>
+    <t>作业系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/OS_X_Yosemite</t>
@@ -263,7 +263,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E6%B7%98%E9%87%91%E6%BD%AE</t>
   </si>
   <si>
-    <t>加利福尼亞淘金潮</t>
+    <t>加利福尼亚淘金潮</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%99%86%E5%86%9B</t>
@@ -395,15 +395,12 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BB%83%E7%9F%B3%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>黃石國家公園</t>
+    <t>黄石国家公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>國家公園</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%9E%E7%AB%8B%E5%85%AC%E5%9B%AD</t>
   </si>
   <si>
@@ -419,7 +416,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%80%E6%A2%9D%E6%A9%AB%E8%B2%AB%E5%A4%A7%E9%99%B8%E9%90%B5%E8%B7%AF</t>
   </si>
   <si>
-    <t>第一條橫貫大陸鐵路</t>
+    <t>第一条横贯大陆铁路</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%BF%E7%AB%99%E9%A9%AC%E8%BD%A6</t>
@@ -449,7 +446,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%BF%E7%BE%8A</t>
   </si>
   <si>
-    <t>綿羊</t>
+    <t>绵羊</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Century_Magazine</t>
@@ -557,7 +554,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E5%BE%B7%E5%B3%B6%E5%B7%9E</t>
   </si>
   <si>
-    <t>羅德島州</t>
+    <t>罗德岛州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B9%96%E6%B3%8A</t>
@@ -659,7 +656,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B7%E5%B1%A4</t>
   </si>
   <si>
-    <t>斷層</t>
+    <t>断层</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8A%B1%E5%B2%97%E9%97%AA%E9%95%BF%E5%B2%A9</t>
@@ -809,7 +806,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%84%AA%E5%8B%9D%E7%BE%8E%E5%9C%B0%E7%80%91%E5%B8%83</t>
   </si>
   <si>
-    <t>優勝美地瀑布</t>
+    <t>优胜美地瀑布</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Ribbon_Fall</t>
@@ -839,7 +836,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%A3%E5%80%99%E8%AE%8A%E9%81%B7</t>
   </si>
   <si>
-    <t>氣候變遷</t>
+    <t>气候变迁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%8B%E5%AD%A3</t>
@@ -905,13 +902,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%86%B0%E6%B2%B3%E6%99%82%E6%9C%9F</t>
   </si>
   <si>
-    <t>冰河時期</t>
+    <t>冰河时期</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E7%88%BA</t>
   </si>
   <si>
-    <t>世界爺</t>
+    <t>世界爷</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E6%B5%A9%E6%B9%96</t>
@@ -935,15 +932,12 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BA%A5%E6%96%AF%E5%BE%B7%E6%B2%B3</t>
   </si>
   <si>
-    <t>麥斯德河</t>
+    <t>麦斯德河</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B3%BD%E8%B0%B7</t>
   </si>
   <si>
-    <t>峽谷</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%B0%E8%88%8C</t>
   </si>
   <si>
@@ -965,7 +959,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%85%E6%9C%A8%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>紅木國家公園</t>
+    <t>红木国家公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E7%8E%8B%E5%B3%A1%E8%B0%B7%E5%9B%BD%E5%AE%B6%E5%85%AC%E5%9B%AD</t>
@@ -977,7 +971,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%B0%E8%B3%AA%E8%AA%BF%E6%9F%A5%E5%B1%80</t>
   </si>
   <si>
-    <t>美國地質調查局</t>
+    <t>美国地质调查局</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%89%8D%E5%AF%92%E6%AD%A6%E7%BA%AA</t>
@@ -1013,13 +1007,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9A%B1%E6%B2%92%E5%B8%B6</t>
   </si>
   <si>
-    <t>隱沒帶</t>
+    <t>隐没带</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%BE%8E%E6%B4%B2%E6%9D%BF%E5%A1%8A</t>
   </si>
   <si>
-    <t>北美洲板塊</t>
+    <t>北美洲板块</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E6%8B%89%E9%BE%99%E6%9D%BF%E5%9D%97</t>
@@ -1031,7 +1025,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B3%B6%E5%BC%A7</t>
   </si>
   <si>
-    <t>島弧</t>
+    <t>岛弧</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BE%8F%E7%BD%97%E7%BA%AA</t>
@@ -1103,7 +1097,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A8%BE%E9%B9%BF</t>
   </si>
   <si>
-    <t>騾鹿</t>
+    <t>骡鹿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8E%9F%E5%A7%8B%E6%A3%AE%E6%9E%97</t>
@@ -1181,7 +1175,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9F%AD%E5%B0%BE%E8%B2%93</t>
   </si>
   <si>
-    <t>短尾貓</t>
+    <t>短尾猫</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E6%B4%B2%E7%8B%AE</t>
@@ -1205,7 +1199,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8E%8B%E8%9B%87%E5%B1%AC</t>
   </si>
   <si>
-    <t>王蛇屬</t>
+    <t>王蛇属</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Gilbert%27s_skink</t>
@@ -1229,7 +1223,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E9%BB%9E%E6%9E%97%E9%B4%9E</t>
   </si>
   <si>
-    <t>西點林鴞</t>
+    <t>西点林鸮</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%A2%E6%9D%89</t>
@@ -1265,7 +1259,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E9%87%91%E8%83%8C%E9%BB%83%E9%BC%A0</t>
   </si>
   <si>
-    <t>加利福尼亞金背黃鼠</t>
+    <t>加利福尼亚金背黄鼠</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Douglas_squirrel</t>
@@ -1295,7 +1289,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%92%BC%E9%B7%B9</t>
   </si>
   <si>
-    <t>蒼鷹</t>
+    <t>苍鹰</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/rubber_boa</t>
@@ -1319,7 +1313,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BB%83%E8%85%B9%E5%9C%9F%E6%92%A5%E9%BC%A0</t>
   </si>
   <si>
-    <t>黃腹土撥鼠</t>
+    <t>黄腹土拨鼠</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/whitebark_pine</t>
@@ -1367,7 +1361,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E6%9E%97%E9%B4%9E</t>
   </si>
   <si>
-    <t>烏林鴞</t>
+    <t>乌林鸮</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/willow_flycatcher</t>
@@ -1397,7 +1391,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%B7%9E%E7%A5%9E%E9%B7%B2</t>
   </si>
   <si>
-    <t>加州神鷲</t>
+    <t>加州神鹫</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/least_Bell%27s_vireo</t>
@@ -1421,25 +1415,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%96%E4%BE%86%E7%89%A9%E7%A8%AE</t>
   </si>
   <si>
-    <t>外來物種</t>
+    <t>外来物种</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A9%BA%E6%B0%A3%E6%B1%A1%E6%9F%93</t>
   </si>
   <si>
-    <t>空氣污染</t>
+    <t>空气污染</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A3%B2%E6%81%AF%E5%9C%B0%E9%9B%B6%E7%A2%8E%E5%8C%96</t>
   </si>
   <si>
-    <t>棲息地零碎化</t>
+    <t>栖息地零碎化</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B7%AF%E6%AE%BA</t>
   </si>
   <si>
-    <t>路殺</t>
+    <t>路杀</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Centaurea_solstitialis</t>
@@ -1517,7 +1511,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%AB%E8%91%89%E9%80%A3%E7%BF%B9</t>
   </si>
   <si>
-    <t>貫葉連翹</t>
+    <t>贯叶连翘</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8D%89%E6%9C%A8%E7%8A%80%E5%B1%9E</t>
@@ -1547,7 +1541,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B7%B7%E5%90%88%E5%8B%95%E5%8A%9B%E8%BB%8A%E8%BC%9B</t>
   </si>
   <si>
-    <t>混合動力車輛</t>
+    <t>混合动力车辆</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Tioga_Road</t>
@@ -1589,7 +1583,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E5%8F%B2%E8%B9%9F%E5%90%8D%E9%8C%84</t>
   </si>
   <si>
-    <t>國家史蹟名錄</t>
+    <t>国家史蹟名录</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/backpacking_(wilderness)</t>
@@ -1637,7 +1631,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E7%9B%9B%E9%A0%93%C2%B7%E6%AD%90%E6%96%87</t>
   </si>
   <si>
-    <t>華盛頓·歐文</t>
+    <t>华盛顿·欧文</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%A1%9E%E5%B0%94%C2%B7%E4%BA%9A%E5%BD%93%E6%96%AF</t>
@@ -1667,13 +1661,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E9%A1%9E</t>
   </si>
   <si>
-    <t>人類</t>
+    <t>人类</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%84%B6%E7%92%B0%E5%A2%83</t>
   </si>
   <si>
-    <t>自然環境</t>
+    <t>自然环境</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%89%93%E9%9B%B7</t>
@@ -1685,19 +1679,16 @@
     <t>https://zh.wikipedia.org/wiki/%E9%96%83%E9%9B%BB</t>
   </si>
   <si>
-    <t>閃電</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E7%84%B6%E7%81%AB%E7%81%BD</t>
   </si>
   <si>
-    <t>天然火災</t>
+    <t>天然火灾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A8%B9%E7%9A%AE</t>
   </si>
   <si>
-    <t>樹皮</t>
+    <t>树皮</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E5%BA%A6</t>
@@ -1715,7 +1706,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BC%AA%E8%80%95</t>
   </si>
   <si>
-    <t>輪耕</t>
+    <t>轮耕</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%80%95%E5%9C%B0</t>
@@ -1727,19 +1718,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A8%B9%E6%9E%97</t>
   </si>
   <si>
-    <t>樹林</t>
+    <t>树林</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%81%AB%E7%81%BD</t>
   </si>
   <si>
-    <t>火災</t>
+    <t>火灾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%99%BD%E5%85%89</t>
   </si>
   <si>
-    <t>陽光</t>
+    <t>阳光</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%AE%B6%E5%85%AC%E5%9B%AD%E7%AE%A1%E7%90%86%E5%B1%80</t>
@@ -1757,13 +1748,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E6%9C%83</t>
   </si>
   <si>
-    <t>美國國會</t>
+    <t>美国国会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%8E%E7%94%9F%E5%8B%95%E7%89%A9</t>
   </si>
   <si>
-    <t>野生動物</t>
+    <t>野生动物</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A3%AE%E6%9E%97</t>
@@ -1775,7 +1766,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A8%AE%E6%97%8F%E6%BB%85%E7%B5%95</t>
   </si>
   <si>
-    <t>種族滅絕</t>
+    <t>种族灭绝</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B4%E5%9C%9F%E6%B5%81%E5%A4%B1</t>
@@ -1793,15 +1784,12 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%A3%E5%80%99</t>
   </si>
   <si>
-    <t>氣候</t>
+    <t>气候</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%88%8A%E9%87%91%E5%B1%B1</t>
   </si>
   <si>
-    <t>舊金山</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B4%E8%B5%84%E6%BA%90</t>
   </si>
   <si>
@@ -1817,7 +1805,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B4%E5%BA%AB</t>
   </si>
   <si>
-    <t>水庫</t>
+    <t>水库</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8A%E6%B8%B8</t>
@@ -1835,7 +1823,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%88%8A%E9%87%91%E5%B1%B1%E7%81%A3%E5%8D%80</t>
   </si>
   <si>
-    <t>舊金山灣區</t>
+    <t>旧金山湾区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E5%85%8B%E5%85%B0_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -1847,7 +1835,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E8%8D%B7%E8%A5%BF_(%E7%BE%8E%E5%9C%8B%E5%8A%A0%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聖荷西 (美國加州)</t>
+    <t>圣荷西 (美国加州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A1%85%E8%B0%B7</t>
@@ -1859,7 +1847,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AF%80%E7%B4%84%E7%94%A8%E6%B0%B4</t>
   </si>
   <si>
-    <t>節約用水</t>
+    <t>节约用水</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E8%97%A9%E5%B8%82</t>
@@ -1877,25 +1865,22 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B5%90%E6%99%B6</t>
   </si>
   <si>
-    <t>結晶</t>
+    <t>结晶</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E9%B3%A5</t>
   </si>
   <si>
-    <t>海鳥</t>
+    <t>海鸟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>加利福尼亞州</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E8%8F%AF%E9%81%94%E5%B7%9E</t>
   </si>
   <si>
-    <t>內華達州</t>
+    <t>内华达州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B7%A1%E6%B0%B4%E6%B9%96</t>
@@ -1919,7 +1904,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%85%E6%9D%89%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>紅杉國家公園</t>
+    <t>红杉国家公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E6%B3%95%E7%BD%97%E5%A3%AB%E5%85%B5</t>
@@ -1949,9 +1934,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9C%B0%E8%B4%A8%E8%B0%83%E6%9F%A5%E5%B1%80</t>
   </si>
   <si>
-    <t>美国地质调查局</t>
-  </si>
-  <si>
     <t>https://en.wikipedia.org/wiki/California_Office_of_Tourism</t>
   </si>
   <si>
@@ -2009,25 +1991,25 @@
     <t>https://zh.wikipedia.org/wiki/Template_talk:%E7%BE%8E%E5%9C%8B%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>Template talk-美國國家公園</t>
+    <t>Template talk-美国国家公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%A7%91%E5%BA%95%E4%BA%9E%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>阿科底亞國家公園</t>
+    <t>阿科底亚国家公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%B1%AC%E8%96%A9%E6%91%A9%E4%BA%9E%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>美屬薩摩亞國家公園</t>
+    <t>美属萨摩亚国家公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%B1%E9%96%80%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>拱門國家公園</t>
+    <t>拱门国家公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%81%B6%E5%9C%B0%E5%9B%BD%E5%AE%B6%E5%85%AC%E5%9B%AD</t>
@@ -2039,13 +2021,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%BD%8E%E6%9B%B2%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>大彎曲國家公園</t>
+    <t>大弯曲国家公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E6%96%AF%E5%9D%8E%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>比斯坎國家公園</t>
+    <t>比斯坎国家公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%98%E5%B0%BC%E9%80%8A%E9%BB%91%E5%B3%A1%E8%B0%B7%E5%9B%BD%E5%AE%B6%E5%85%AC%E5%9B%AD</t>
@@ -2057,7 +2039,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E8%90%8A%E6%96%AF%E5%B3%BD%E8%B0%B7%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>布萊斯峽谷國家公園</t>
+    <t>布莱斯峡谷国家公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B3%A1%E8%B0%B7%E5%9C%B0%E5%9B%BD%E5%AE%B6%E5%85%AC%E5%9B%AD</t>
@@ -2093,7 +2075,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%81%AB%E5%B1%B1%E5%8F%A3%E6%B9%96%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>火山口湖國家公園</t>
+    <t>火山口湖国家公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%93%E9%9B%85%E8%8D%B7%E5%8A%A0%E8%B0%B7%E5%9B%BD%E5%AE%B6%E5%85%AC%E5%9B%AD</t>
@@ -2105,7 +2087,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%BB%E4%BA%A1%E8%B0%B7%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>死亡谷國家公園</t>
+    <t>死亡谷国家公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BF%AA%E7%BA%B3%E5%88%A9%E5%9B%BD%E5%AE%B6%E5%85%AC%E5%9B%AD%E5%92%8C%E7%A6%81%E7%8C%8E%E5%8C%BA</t>
@@ -2117,13 +2099,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B9%BE%E9%BE%9C%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>乾龜國家公園</t>
+    <t>干龟国家公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%B2%BC%E6%BE%A4%E5%9C%B0%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>大沼澤地國家公園</t>
+    <t>大沼泽地国家公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E6%9E%81%E9%97%A8%E5%9B%BD%E5%AE%B6%E5%85%AC%E5%9B%AD%E5%92%8C%E4%BF%9D%E6%8A%A4%E5%8C%BA</t>
@@ -2135,25 +2117,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%86%B0%E5%B7%9D%E7%81%A3%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>冰川灣國家公園</t>
+    <t>冰川湾国家公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%B3%BD%E8%B0%B7%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>大峽谷國家公園</t>
+    <t>大峡谷国家公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%92%82%E9%A0%93%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>大蒂頓國家公園</t>
+    <t>大蒂顿国家公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E7%9B%86%E5%9C%B0%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>大盆地國家公園</t>
+    <t>大盆地国家公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%B2%99%E4%B8%98%E5%9B%BD%E5%AE%B6%E5%85%AC%E5%9B%AD</t>
@@ -2165,25 +2147,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E7%85%99%E5%B1%B1%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>大煙山國家公園</t>
+    <t>大烟山国家公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%93%9C%E9%81%94%E6%B4%9B%E6%99%AE%E5%B1%B1%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>瓜達洛普山國家公園</t>
+    <t>瓜达洛普山国家公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E5%8B%92%E5%8D%A1%E6%8B%89%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>海勒卡拉國家公園</t>
+    <t>海勒卡拉国家公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E5%A8%81%E5%A4%B7%E7%81%AB%E5%B1%B1%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>夏威夷火山國家公園</t>
+    <t>夏威夷火山国家公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B8%A9%E6%B3%89%E5%9B%BD%E5%AE%B6%E5%85%AC%E5%9B%AD</t>
@@ -2195,49 +2177,49 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9A%87%E5%AE%B6%E5%B3%B6%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>皇家島國家公園</t>
+    <t>皇家岛国家公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E6%9B%B8%E4%BA%9E%E6%A8%B9%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>約書亞樹國家公園</t>
+    <t>约书亚树国家公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E7%89%B9%E9%82%81%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92%E5%92%8C%E8%87%AA%E7%84%B6%E4%BF%9D%E8%AD%B7%E5%8D%80</t>
   </si>
   <si>
-    <t>卡特邁國家公園和自然保護區</t>
+    <t>卡特迈国家公园和自然保护区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E5%A5%88%E5%B3%BD%E7%81%A3%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>基奈峽灣國家公園</t>
+    <t>基奈峡湾国家公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E4%BC%AF%E5%85%8B%E8%B0%B7%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>科伯克谷國家公園</t>
+    <t>科伯克谷国家公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E6%8B%89%E5%85%8B%E6%B9%96%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92%E5%92%8C%E8%87%AA%E7%84%B6%E4%BF%9D%E8%AD%B7%E5%8D%80</t>
   </si>
   <si>
-    <t>克拉克湖國家公園和自然保護區</t>
+    <t>克拉克湖国家公园和自然保护区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E6%A3%AE%E7%81%AB%E5%B1%B1%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>拉森火山國家公園</t>
+    <t>拉森火山国家公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8C%9B%E7%8D%81%E6%B4%9E%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>猛獁洞國家公園</t>
+    <t>猛犸洞国家公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A2%85%E8%90%A8%E7%BB%B4%E5%BE%B7%E5%9B%BD%E5%AE%B6%E5%85%AC%E5%9B%AD</t>
@@ -2249,91 +2231,91 @@
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%B0%BC%E7%88%BE%E5%B1%B1%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>瑞尼爾山國家公園</t>
+    <t>瑞尼尔山国家公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E5%96%80%E6%96%AF%E9%96%8B%E5%B1%B1%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>北喀斯開山國家公園</t>
+    <t>北喀斯开山国家公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E6%9E%97%E5%8C%B9%E5%85%8B%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>奧林匹克國家公園</t>
+    <t>奥林匹克国家公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9F%B3%E5%8C%96%E6%9E%97%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>石化林國家公園</t>
+    <t>石化林国家公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%96%E9%A0%82%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>尖頂國家公園</t>
+    <t>尖顶国家公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E7%A3%AF%E5%B1%B1%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>洛磯山國家公園</t>
+    <t>洛矶山国家公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A8%E4%BA%BA%E6%9F%B1%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>巨人柱國家公園</t>
+    <t>巨人柱国家公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A8%E6%9D%89%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>巨杉國家公園</t>
+    <t>巨杉国家公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BB%99%E7%B4%8D%E5%BA%A6%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>仙納度國家公園</t>
+    <t>仙纳度国家公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%A5%A5%E5%A4%9A%C2%B7%E7%BE%85%E6%96%AF%E7%A6%8F%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>西奥多·羅斯福國家公園</t>
+    <t>西奥多·罗斯福国家公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E7%88%BE%E4%BA%AC%E7%BE%A4%E5%B3%B6%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>維爾京群島國家公園</t>
+    <t>维尔京群岛国家公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A8%B5%E5%A4%AB%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>樵夫國家公園</t>
+    <t>樵夫国家公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A2%A8%E6%B4%9E%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>風洞國家公園</t>
+    <t>风洞国家公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E8%98%AD%E6%A0%BC%E7%88%BE%EF%BC%8D%E8%81%96%E4%BC%8A%E8%90%8A%E4%BA%9E%E6%96%AF%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>弗蘭格爾－聖伊萊亞斯國家公園</t>
+    <t>弗兰格尔－圣伊莱亚斯国家公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%8C%AB%E5%AE%89%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>錫安國家公園</t>
+    <t>锡安国家公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%8D%A1%E8%BF%AA%E4%BA%9A%E5%9B%BD%E5%AE%B6%E5%85%AC%E5%9B%AD</t>
@@ -2345,9 +2327,6 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E9%81%BA%E7%94%A2</t>
   </si>
   <si>
-    <t>世界遺產</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%8B%AC%E7%AB%8B%E7%BA%AA%E5%BF%B5%E9%A6%86</t>
   </si>
   <si>
@@ -2357,7 +2336,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E9%9C%8D%E5%9F%BA%E4%BA%9E%E9%81%BA%E5%9D%80</t>
   </si>
   <si>
-    <t>卡霍基亞遺址</t>
+    <t>卡霍基亚遗址</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/La_Fortaleza</t>
@@ -2405,25 +2384,22 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E7%9B%A7%E6%81%A9/%E5%BC%97%E8%98%AD%E6%A0%BC%E7%88%BE-%E8%81%96%E4%BC%8A%E8%90%8A%E4%BA%9E%E6%96%AF/%E5%86%B0%E5%B7%9D%E7%81%A3/%E5%A1%94%E7%90%B4%E5%B8%8C%E5%B0%BC-%E9%98%BF%E7%88%BE%E5%A1%9E%E5%85%8B</t>
   </si>
   <si>
-    <t>克盧恩/弗蘭格爾-聖伊萊亞斯/冰川灣/塔琴希尼-阿爾塞克</t>
+    <t>克卢恩/弗兰格尔-圣伊莱亚斯/冰川湾/塔琴希尼-阿尔塞克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8C%9B%E7%8A%B8%E6%B4%9E%E5%9B%BD%E5%AE%B6%E5%85%AC%E5%9B%AD</t>
   </si>
   <si>
-    <t>猛犸洞国家公园</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%83%E7%89%B9%E9%A0%93-%E5%86%B0%E5%B7%9D%E5%9C%8B%E9%9A%9B%E5%92%8C%E5%B9%B3%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>沃特頓-冰川國際和平公園</t>
+    <t>沃特顿-冰川国际和平公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%95%E5%B8%95%E5%93%88%E7%91%99%E8%8E%AB%E5%A4%B8%E5%9F%BA%E4%BA%9E%E5%9C%8B%E5%AE%B6%E6%B5%B7%E6%B4%8B%E4%BF%9D%E8%AD%B7%E5%8D%80</t>
   </si>
   <si>
-    <t>帕帕哈瑙莫夸基亞國家海洋保護區</t>
+    <t>帕帕哈瑙莫夸基亚国家海洋保护区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%8B%BF%E5%A4%A7</t>
@@ -4700,7 +4676,7 @@
         <v>127</v>
       </c>
       <c r="F66" t="s">
-        <v>128</v>
+        <v>6</v>
       </c>
       <c r="G66" t="n">
         <v>42</v>
@@ -4755,10 +4731,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
+        <v>128</v>
+      </c>
+      <c r="F68" t="s">
         <v>129</v>
-      </c>
-      <c r="F68" t="s">
-        <v>130</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -4784,10 +4760,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
+        <v>130</v>
+      </c>
+      <c r="F69" t="s">
         <v>131</v>
-      </c>
-      <c r="F69" t="s">
-        <v>132</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -4813,10 +4789,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
+        <v>132</v>
+      </c>
+      <c r="F70" t="s">
         <v>133</v>
-      </c>
-      <c r="F70" t="s">
-        <v>134</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -4842,10 +4818,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
+        <v>134</v>
+      </c>
+      <c r="F71" t="s">
         <v>135</v>
-      </c>
-      <c r="F71" t="s">
-        <v>136</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -4871,10 +4847,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
+        <v>136</v>
+      </c>
+      <c r="F72" t="s">
         <v>137</v>
-      </c>
-      <c r="F72" t="s">
-        <v>138</v>
       </c>
       <c r="G72" t="n">
         <v>2</v>
@@ -4900,10 +4876,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
+        <v>138</v>
+      </c>
+      <c r="F73" t="s">
         <v>139</v>
-      </c>
-      <c r="F73" t="s">
-        <v>140</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -4929,10 +4905,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
+        <v>140</v>
+      </c>
+      <c r="F74" t="s">
         <v>141</v>
-      </c>
-      <c r="F74" t="s">
-        <v>142</v>
       </c>
       <c r="G74" t="n">
         <v>12</v>
@@ -4958,10 +4934,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
+        <v>142</v>
+      </c>
+      <c r="F75" t="s">
         <v>143</v>
-      </c>
-      <c r="F75" t="s">
-        <v>144</v>
       </c>
       <c r="G75" t="n">
         <v>3</v>
@@ -4987,10 +4963,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
+        <v>144</v>
+      </c>
+      <c r="F76" t="s">
         <v>145</v>
-      </c>
-      <c r="F76" t="s">
-        <v>146</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -5016,10 +4992,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
+        <v>146</v>
+      </c>
+      <c r="F77" t="s">
         <v>147</v>
-      </c>
-      <c r="F77" t="s">
-        <v>148</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -5045,10 +5021,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
+        <v>148</v>
+      </c>
+      <c r="F78" t="s">
         <v>149</v>
-      </c>
-      <c r="F78" t="s">
-        <v>150</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -5074,10 +5050,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
+        <v>150</v>
+      </c>
+      <c r="F79" t="s">
         <v>151</v>
-      </c>
-      <c r="F79" t="s">
-        <v>152</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -5103,10 +5079,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
+        <v>152</v>
+      </c>
+      <c r="F80" t="s">
         <v>153</v>
-      </c>
-      <c r="F80" t="s">
-        <v>154</v>
       </c>
       <c r="G80" t="n">
         <v>3</v>
@@ -5132,10 +5108,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
+        <v>154</v>
+      </c>
+      <c r="F81" t="s">
         <v>155</v>
-      </c>
-      <c r="F81" t="s">
-        <v>156</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -5161,10 +5137,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
+        <v>156</v>
+      </c>
+      <c r="F82" t="s">
         <v>157</v>
-      </c>
-      <c r="F82" t="s">
-        <v>158</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -5190,10 +5166,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
+        <v>158</v>
+      </c>
+      <c r="F83" t="s">
         <v>159</v>
-      </c>
-      <c r="F83" t="s">
-        <v>160</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -5219,10 +5195,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
+        <v>160</v>
+      </c>
+      <c r="F84" t="s">
         <v>161</v>
-      </c>
-      <c r="F84" t="s">
-        <v>162</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -5248,10 +5224,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
+        <v>162</v>
+      </c>
+      <c r="F85" t="s">
         <v>163</v>
-      </c>
-      <c r="F85" t="s">
-        <v>164</v>
       </c>
       <c r="G85" t="n">
         <v>3</v>
@@ -5277,10 +5253,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
+        <v>164</v>
+      </c>
+      <c r="F86" t="s">
         <v>165</v>
-      </c>
-      <c r="F86" t="s">
-        <v>166</v>
       </c>
       <c r="G86" t="n">
         <v>2</v>
@@ -5306,10 +5282,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
+        <v>166</v>
+      </c>
+      <c r="F87" t="s">
         <v>167</v>
-      </c>
-      <c r="F87" t="s">
-        <v>168</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -5335,10 +5311,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
+        <v>168</v>
+      </c>
+      <c r="F88" t="s">
         <v>169</v>
-      </c>
-      <c r="F88" t="s">
-        <v>170</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -5364,10 +5340,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
+        <v>170</v>
+      </c>
+      <c r="F89" t="s">
         <v>171</v>
-      </c>
-      <c r="F89" t="s">
-        <v>172</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -5393,10 +5369,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
+        <v>172</v>
+      </c>
+      <c r="F90" t="s">
         <v>173</v>
-      </c>
-      <c r="F90" t="s">
-        <v>174</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -5422,10 +5398,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
+        <v>174</v>
+      </c>
+      <c r="F91" t="s">
         <v>175</v>
-      </c>
-      <c r="F91" t="s">
-        <v>176</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -5451,10 +5427,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
+        <v>176</v>
+      </c>
+      <c r="F92" t="s">
         <v>177</v>
-      </c>
-      <c r="F92" t="s">
-        <v>178</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -5480,10 +5456,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
+        <v>178</v>
+      </c>
+      <c r="F93" t="s">
         <v>179</v>
-      </c>
-      <c r="F93" t="s">
-        <v>180</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -5509,10 +5485,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
+        <v>180</v>
+      </c>
+      <c r="F94" t="s">
         <v>181</v>
-      </c>
-      <c r="F94" t="s">
-        <v>182</v>
       </c>
       <c r="G94" t="n">
         <v>3</v>
@@ -5538,10 +5514,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
+        <v>182</v>
+      </c>
+      <c r="F95" t="s">
         <v>183</v>
-      </c>
-      <c r="F95" t="s">
-        <v>184</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -5567,10 +5543,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
+        <v>184</v>
+      </c>
+      <c r="F96" t="s">
         <v>185</v>
-      </c>
-      <c r="F96" t="s">
-        <v>186</v>
       </c>
       <c r="G96" t="n">
         <v>2</v>
@@ -5596,10 +5572,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
+        <v>186</v>
+      </c>
+      <c r="F97" t="s">
         <v>187</v>
-      </c>
-      <c r="F97" t="s">
-        <v>188</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -5625,10 +5601,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
+        <v>188</v>
+      </c>
+      <c r="F98" t="s">
         <v>189</v>
-      </c>
-      <c r="F98" t="s">
-        <v>190</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -5683,10 +5659,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
+        <v>190</v>
+      </c>
+      <c r="F100" t="s">
         <v>191</v>
-      </c>
-      <c r="F100" t="s">
-        <v>192</v>
       </c>
       <c r="G100" t="n">
         <v>3</v>
@@ -5712,10 +5688,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
+        <v>192</v>
+      </c>
+      <c r="F101" t="s">
         <v>193</v>
-      </c>
-      <c r="F101" t="s">
-        <v>194</v>
       </c>
       <c r="G101" t="n">
         <v>5</v>
@@ -5741,10 +5717,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
+        <v>194</v>
+      </c>
+      <c r="F102" t="s">
         <v>195</v>
-      </c>
-      <c r="F102" t="s">
-        <v>196</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -5770,10 +5746,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
+        <v>196</v>
+      </c>
+      <c r="F103" t="s">
         <v>197</v>
-      </c>
-      <c r="F103" t="s">
-        <v>198</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -5799,10 +5775,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
+        <v>198</v>
+      </c>
+      <c r="F104" t="s">
         <v>199</v>
-      </c>
-      <c r="F104" t="s">
-        <v>200</v>
       </c>
       <c r="G104" t="n">
         <v>2</v>
@@ -5828,10 +5804,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
+        <v>200</v>
+      </c>
+      <c r="F105" t="s">
         <v>201</v>
-      </c>
-      <c r="F105" t="s">
-        <v>202</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -5857,10 +5833,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
+        <v>202</v>
+      </c>
+      <c r="F106" t="s">
         <v>203</v>
-      </c>
-      <c r="F106" t="s">
-        <v>204</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -5886,10 +5862,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
+        <v>204</v>
+      </c>
+      <c r="F107" t="s">
         <v>205</v>
-      </c>
-      <c r="F107" t="s">
-        <v>206</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -5915,10 +5891,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
+        <v>206</v>
+      </c>
+      <c r="F108" t="s">
         <v>207</v>
-      </c>
-      <c r="F108" t="s">
-        <v>208</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -5944,10 +5920,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
+        <v>208</v>
+      </c>
+      <c r="F109" t="s">
         <v>209</v>
-      </c>
-      <c r="F109" t="s">
-        <v>210</v>
       </c>
       <c r="G109" t="n">
         <v>7</v>
@@ -5973,10 +5949,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
+        <v>210</v>
+      </c>
+      <c r="F110" t="s">
         <v>211</v>
-      </c>
-      <c r="F110" t="s">
-        <v>212</v>
       </c>
       <c r="G110" t="n">
         <v>2</v>
@@ -6002,10 +5978,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
+        <v>212</v>
+      </c>
+      <c r="F111" t="s">
         <v>213</v>
-      </c>
-      <c r="F111" t="s">
-        <v>214</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -6031,10 +6007,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
+        <v>214</v>
+      </c>
+      <c r="F112" t="s">
         <v>215</v>
-      </c>
-      <c r="F112" t="s">
-        <v>216</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -6060,10 +6036,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
+        <v>216</v>
+      </c>
+      <c r="F113" t="s">
         <v>217</v>
-      </c>
-      <c r="F113" t="s">
-        <v>218</v>
       </c>
       <c r="G113" t="n">
         <v>2</v>
@@ -6089,10 +6065,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
+        <v>218</v>
+      </c>
+      <c r="F114" t="s">
         <v>219</v>
-      </c>
-      <c r="F114" t="s">
-        <v>220</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -6118,10 +6094,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
+        <v>220</v>
+      </c>
+      <c r="F115" t="s">
         <v>221</v>
-      </c>
-      <c r="F115" t="s">
-        <v>222</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -6147,10 +6123,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
+        <v>222</v>
+      </c>
+      <c r="F116" t="s">
         <v>223</v>
-      </c>
-      <c r="F116" t="s">
-        <v>224</v>
       </c>
       <c r="G116" t="n">
         <v>3</v>
@@ -6176,10 +6152,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
+        <v>224</v>
+      </c>
+      <c r="F117" t="s">
         <v>225</v>
-      </c>
-      <c r="F117" t="s">
-        <v>226</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -6205,10 +6181,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
+        <v>226</v>
+      </c>
+      <c r="F118" t="s">
         <v>227</v>
-      </c>
-      <c r="F118" t="s">
-        <v>228</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -6234,10 +6210,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
+        <v>228</v>
+      </c>
+      <c r="F119" t="s">
         <v>229</v>
-      </c>
-      <c r="F119" t="s">
-        <v>230</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -6263,10 +6239,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
+        <v>230</v>
+      </c>
+      <c r="F120" t="s">
         <v>231</v>
-      </c>
-      <c r="F120" t="s">
-        <v>232</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -6292,10 +6268,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
+        <v>232</v>
+      </c>
+      <c r="F121" t="s">
         <v>233</v>
-      </c>
-      <c r="F121" t="s">
-        <v>234</v>
       </c>
       <c r="G121" t="n">
         <v>2</v>
@@ -6321,10 +6297,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
+        <v>234</v>
+      </c>
+      <c r="F122" t="s">
         <v>235</v>
-      </c>
-      <c r="F122" t="s">
-        <v>236</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -6350,10 +6326,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
+        <v>236</v>
+      </c>
+      <c r="F123" t="s">
         <v>237</v>
-      </c>
-      <c r="F123" t="s">
-        <v>238</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -6379,10 +6355,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
+        <v>238</v>
+      </c>
+      <c r="F124" t="s">
         <v>239</v>
-      </c>
-      <c r="F124" t="s">
-        <v>240</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -6408,10 +6384,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
+        <v>240</v>
+      </c>
+      <c r="F125" t="s">
         <v>241</v>
-      </c>
-      <c r="F125" t="s">
-        <v>242</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -6437,10 +6413,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
+        <v>242</v>
+      </c>
+      <c r="F126" t="s">
         <v>243</v>
-      </c>
-      <c r="F126" t="s">
-        <v>244</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -6466,10 +6442,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
+        <v>244</v>
+      </c>
+      <c r="F127" t="s">
         <v>245</v>
-      </c>
-      <c r="F127" t="s">
-        <v>246</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -6495,10 +6471,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
+        <v>246</v>
+      </c>
+      <c r="F128" t="s">
         <v>247</v>
-      </c>
-      <c r="F128" t="s">
-        <v>248</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -6524,10 +6500,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
+        <v>248</v>
+      </c>
+      <c r="F129" t="s">
         <v>249</v>
-      </c>
-      <c r="F129" t="s">
-        <v>250</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -6553,10 +6529,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
+        <v>250</v>
+      </c>
+      <c r="F130" t="s">
         <v>251</v>
-      </c>
-      <c r="F130" t="s">
-        <v>252</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -6611,10 +6587,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
+        <v>252</v>
+      </c>
+      <c r="F132" t="s">
         <v>253</v>
-      </c>
-      <c r="F132" t="s">
-        <v>254</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -6640,10 +6616,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
+        <v>254</v>
+      </c>
+      <c r="F133" t="s">
         <v>255</v>
-      </c>
-      <c r="F133" t="s">
-        <v>256</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -6669,10 +6645,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
+        <v>256</v>
+      </c>
+      <c r="F134" t="s">
         <v>257</v>
-      </c>
-      <c r="F134" t="s">
-        <v>258</v>
       </c>
       <c r="G134" t="n">
         <v>2</v>
@@ -6698,10 +6674,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
+        <v>258</v>
+      </c>
+      <c r="F135" t="s">
         <v>259</v>
-      </c>
-      <c r="F135" t="s">
-        <v>260</v>
       </c>
       <c r="G135" t="n">
         <v>2</v>
@@ -6727,10 +6703,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
+        <v>260</v>
+      </c>
+      <c r="F136" t="s">
         <v>261</v>
-      </c>
-      <c r="F136" t="s">
-        <v>262</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -6756,10 +6732,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
+        <v>262</v>
+      </c>
+      <c r="F137" t="s">
         <v>263</v>
-      </c>
-      <c r="F137" t="s">
-        <v>264</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -6785,10 +6761,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
+        <v>264</v>
+      </c>
+      <c r="F138" t="s">
         <v>265</v>
-      </c>
-      <c r="F138" t="s">
-        <v>266</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -6814,10 +6790,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
+        <v>266</v>
+      </c>
+      <c r="F139" t="s">
         <v>267</v>
-      </c>
-      <c r="F139" t="s">
-        <v>268</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -6843,10 +6819,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
+        <v>268</v>
+      </c>
+      <c r="F140" t="s">
         <v>269</v>
-      </c>
-      <c r="F140" t="s">
-        <v>270</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -6872,10 +6848,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
+        <v>270</v>
+      </c>
+      <c r="F141" t="s">
         <v>271</v>
-      </c>
-      <c r="F141" t="s">
-        <v>272</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -6901,10 +6877,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
+        <v>272</v>
+      </c>
+      <c r="F142" t="s">
         <v>273</v>
-      </c>
-      <c r="F142" t="s">
-        <v>274</v>
       </c>
       <c r="G142" t="n">
         <v>2</v>
@@ -6930,10 +6906,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
+        <v>274</v>
+      </c>
+      <c r="F143" t="s">
         <v>275</v>
-      </c>
-      <c r="F143" t="s">
-        <v>276</v>
       </c>
       <c r="G143" t="n">
         <v>4</v>
@@ -6959,10 +6935,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
+        <v>276</v>
+      </c>
+      <c r="F144" t="s">
         <v>277</v>
-      </c>
-      <c r="F144" t="s">
-        <v>278</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -6988,10 +6964,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
+        <v>278</v>
+      </c>
+      <c r="F145" t="s">
         <v>279</v>
-      </c>
-      <c r="F145" t="s">
-        <v>280</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -7017,10 +6993,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
+        <v>280</v>
+      </c>
+      <c r="F146" t="s">
         <v>281</v>
-      </c>
-      <c r="F146" t="s">
-        <v>282</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -7046,10 +7022,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
+        <v>282</v>
+      </c>
+      <c r="F147" t="s">
         <v>283</v>
-      </c>
-      <c r="F147" t="s">
-        <v>284</v>
       </c>
       <c r="G147" t="n">
         <v>2</v>
@@ -7075,10 +7051,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
+        <v>284</v>
+      </c>
+      <c r="F148" t="s">
         <v>285</v>
-      </c>
-      <c r="F148" t="s">
-        <v>286</v>
       </c>
       <c r="G148" t="n">
         <v>2</v>
@@ -7104,10 +7080,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
+        <v>286</v>
+      </c>
+      <c r="F149" t="s">
         <v>287</v>
-      </c>
-      <c r="F149" t="s">
-        <v>288</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -7133,10 +7109,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
+        <v>288</v>
+      </c>
+      <c r="F150" t="s">
         <v>289</v>
-      </c>
-      <c r="F150" t="s">
-        <v>290</v>
       </c>
       <c r="G150" t="n">
         <v>3</v>
@@ -7162,10 +7138,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
+        <v>290</v>
+      </c>
+      <c r="F151" t="s">
         <v>291</v>
-      </c>
-      <c r="F151" t="s">
-        <v>292</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -7191,10 +7167,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
+        <v>292</v>
+      </c>
+      <c r="F152" t="s">
         <v>293</v>
-      </c>
-      <c r="F152" t="s">
-        <v>294</v>
       </c>
       <c r="G152" t="n">
         <v>9</v>
@@ -7220,10 +7196,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
+        <v>294</v>
+      </c>
+      <c r="F153" t="s">
         <v>295</v>
-      </c>
-      <c r="F153" t="s">
-        <v>296</v>
       </c>
       <c r="G153" t="n">
         <v>2</v>
@@ -7249,10 +7225,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
+        <v>296</v>
+      </c>
+      <c r="F154" t="s">
         <v>297</v>
-      </c>
-      <c r="F154" t="s">
-        <v>298</v>
       </c>
       <c r="G154" t="n">
         <v>11</v>
@@ -7278,10 +7254,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
+        <v>298</v>
+      </c>
+      <c r="F155" t="s">
         <v>299</v>
-      </c>
-      <c r="F155" t="s">
-        <v>300</v>
       </c>
       <c r="G155" t="n">
         <v>2</v>
@@ -7307,10 +7283,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
+        <v>300</v>
+      </c>
+      <c r="F156" t="s">
         <v>301</v>
-      </c>
-      <c r="F156" t="s">
-        <v>302</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -7336,10 +7312,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
+        <v>302</v>
+      </c>
+      <c r="F157" t="s">
         <v>303</v>
-      </c>
-      <c r="F157" t="s">
-        <v>304</v>
       </c>
       <c r="G157" t="n">
         <v>23</v>
@@ -7365,10 +7341,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
+        <v>304</v>
+      </c>
+      <c r="F158" t="s">
         <v>305</v>
-      </c>
-      <c r="F158" t="s">
-        <v>306</v>
       </c>
       <c r="G158" t="n">
         <v>3</v>
@@ -7394,10 +7370,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F159" t="s">
-        <v>308</v>
+        <v>60</v>
       </c>
       <c r="G159" t="n">
         <v>30</v>
@@ -7423,10 +7399,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F160" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -7452,10 +7428,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F161" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -7481,10 +7457,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F162" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -7510,10 +7486,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F163" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="G163" t="n">
         <v>3</v>
@@ -7539,10 +7515,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F164" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="G164" t="n">
         <v>2</v>
@@ -7568,10 +7544,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="F165" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -7597,10 +7573,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F166" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -7626,10 +7602,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F167" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -7655,10 +7631,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F168" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -7684,10 +7660,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F169" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -7713,10 +7689,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F170" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -7742,10 +7718,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F171" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -7771,10 +7747,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F172" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -7800,10 +7776,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F173" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -7829,10 +7805,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="F174" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -7858,10 +7834,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="F175" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G175" t="n">
         <v>2</v>
@@ -7887,10 +7863,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F176" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -7916,10 +7892,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="F177" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -7945,10 +7921,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="F178" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -7974,10 +7950,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F179" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -8003,10 +7979,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F180" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -8032,10 +8008,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F181" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -8061,10 +8037,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F182" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -8090,10 +8066,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="F183" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -8119,10 +8095,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="F184" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="G184" t="n">
         <v>2</v>
@@ -8148,10 +8124,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="F185" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="G185" t="n">
         <v>2</v>
@@ -8177,10 +8153,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="F186" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="G186" t="n">
         <v>2</v>
@@ -8206,10 +8182,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="F187" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -8235,10 +8211,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="F188" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -8264,10 +8240,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F189" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -8293,10 +8269,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="F190" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -8322,10 +8298,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F191" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -8351,10 +8327,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F192" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -8380,10 +8356,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="F193" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -8409,10 +8385,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F194" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -8438,10 +8414,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F195" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -8467,10 +8443,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="F196" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -8496,10 +8472,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="F197" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -8525,10 +8501,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="F198" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="G198" t="n">
         <v>2</v>
@@ -8554,10 +8530,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="F199" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -8583,10 +8559,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="F200" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -8612,10 +8588,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F201" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -8641,10 +8617,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F202" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -8670,10 +8646,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="F203" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -8699,10 +8675,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="F204" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -8728,10 +8704,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="F205" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -8757,10 +8733,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F206" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -8786,10 +8762,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F207" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -8815,10 +8791,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="F208" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="G208" t="n">
         <v>6</v>
@@ -8844,10 +8820,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="F209" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -8873,10 +8849,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="F210" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -8902,10 +8878,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F211" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -8931,10 +8907,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="F212" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -8960,10 +8936,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="F213" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -8989,10 +8965,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F214" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -9018,10 +8994,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F215" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -9047,10 +9023,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F216" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -9076,10 +9052,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F217" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -9105,10 +9081,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="F218" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -9134,10 +9110,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="F219" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -9163,10 +9139,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="F220" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -9192,10 +9168,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="F221" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -9221,10 +9197,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="F222" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="G222" t="n">
         <v>2</v>
@@ -9250,10 +9226,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="F223" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -9279,10 +9255,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="F224" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -9308,10 +9284,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F225" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -9337,10 +9313,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F226" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -9366,10 +9342,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="F227" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -9395,10 +9371,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="F228" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -9424,10 +9400,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F229" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -9453,10 +9429,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="F230" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -9482,10 +9458,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="F231" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -9511,10 +9487,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="F232" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -9540,10 +9516,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="F233" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -9569,10 +9545,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="F234" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -9598,10 +9574,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="F235" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -9627,10 +9603,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="F236" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -9656,10 +9632,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="F237" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -9685,10 +9661,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="F238" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -9714,10 +9690,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="F239" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -9743,10 +9719,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F240" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
@@ -9772,10 +9748,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="F241" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -9801,10 +9777,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="F242" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -9830,10 +9806,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="F243" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="G243" t="n">
         <v>2</v>
@@ -9859,10 +9835,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="F244" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -9888,10 +9864,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="F245" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="G245" t="n">
         <v>2</v>
@@ -9917,10 +9893,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="F246" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -9946,10 +9922,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="F247" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -9975,10 +9951,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="F248" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="G248" t="n">
         <v>2</v>
@@ -10004,10 +9980,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="F249" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -10033,10 +10009,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="F250" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="G250" t="n">
         <v>20</v>
@@ -10062,10 +10038,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="F251" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="G251" t="n">
         <v>2</v>
@@ -10091,10 +10067,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="F252" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
@@ -10120,10 +10096,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="F253" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
@@ -10149,10 +10125,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="F254" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="G254" t="n">
         <v>1</v>
@@ -10178,10 +10154,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="F255" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -10207,10 +10183,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="F256" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
@@ -10236,10 +10212,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="F257" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="G257" t="n">
         <v>1</v>
@@ -10265,10 +10241,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="F258" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="G258" t="n">
         <v>1</v>
@@ -10294,10 +10270,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="F259" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="G259" t="n">
         <v>1</v>
@@ -10323,10 +10299,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="F260" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="G260" t="n">
         <v>1</v>
@@ -10352,10 +10328,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="F261" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="G261" t="n">
         <v>1</v>
@@ -10381,10 +10357,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="F262" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
@@ -10410,10 +10386,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="F263" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="G263" t="n">
         <v>1</v>
@@ -10439,10 +10415,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="F264" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="G264" t="n">
         <v>3</v>
@@ -10468,10 +10444,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="F265" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="G265" t="n">
         <v>1</v>
@@ -10497,10 +10473,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="F266" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="G266" t="n">
         <v>1</v>
@@ -10526,10 +10502,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="F267" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="G267" t="n">
         <v>1</v>
@@ -10555,10 +10531,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="F268" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="G268" t="n">
         <v>1</v>
@@ -10584,10 +10560,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="F269" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="G269" t="n">
         <v>1</v>
@@ -10613,10 +10589,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="F270" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="G270" t="n">
         <v>1</v>
@@ -10642,10 +10618,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="F271" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="G271" t="n">
         <v>2</v>
@@ -10671,10 +10647,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="F272" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="G272" t="n">
         <v>1</v>
@@ -10700,10 +10676,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="F273" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="G273" t="n">
         <v>1</v>
@@ -10729,10 +10705,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="F274" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="G274" t="n">
         <v>1</v>
@@ -10758,10 +10734,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="F275" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="G275" t="n">
         <v>1</v>
@@ -10787,10 +10763,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="F276" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="G276" t="n">
         <v>2</v>
@@ -10816,10 +10792,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="F277" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="G277" t="n">
         <v>1</v>
@@ -10845,10 +10821,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="F278" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="G278" t="n">
         <v>1</v>
@@ -10874,10 +10850,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="F279" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="G279" t="n">
         <v>1</v>
@@ -10903,10 +10879,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="F280" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="G280" t="n">
         <v>2</v>
@@ -10932,10 +10908,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="F281" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="G281" t="n">
         <v>2</v>
@@ -10961,10 +10937,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="F282" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="G282" t="n">
         <v>1</v>
@@ -10990,10 +10966,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="F283" t="s">
-        <v>556</v>
+        <v>291</v>
       </c>
       <c r="G283" t="n">
         <v>1</v>
@@ -11019,10 +10995,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="F284" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="G284" t="n">
         <v>3</v>
@@ -11048,10 +11024,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="F285" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="G285" t="n">
         <v>2</v>
@@ -11077,10 +11053,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="F286" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="G286" t="n">
         <v>3</v>
@@ -11106,10 +11082,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="F287" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="G287" t="n">
         <v>2</v>
@@ -11135,10 +11111,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="F288" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="G288" t="n">
         <v>1</v>
@@ -11164,10 +11140,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="F289" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="G289" t="n">
         <v>1</v>
@@ -11193,10 +11169,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="F290" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="G290" t="n">
         <v>13</v>
@@ -11222,10 +11198,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="F291" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="G291" t="n">
         <v>7</v>
@@ -11251,10 +11227,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="F292" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="G292" t="n">
         <v>2</v>
@@ -11280,10 +11256,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="F293" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="G293" t="n">
         <v>1</v>
@@ -11309,10 +11285,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="F294" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="G294" t="n">
         <v>7</v>
@@ -11338,10 +11314,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="F295" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="G295" t="n">
         <v>1</v>
@@ -11367,10 +11343,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="F296" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="G296" t="n">
         <v>2</v>
@@ -11396,10 +11372,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="F297" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="G297" t="n">
         <v>9</v>
@@ -11425,10 +11401,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="F298" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="G298" t="n">
         <v>1</v>
@@ -11454,10 +11430,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="F299" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="G299" t="n">
         <v>1</v>
@@ -11483,10 +11459,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="F300" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="G300" t="n">
         <v>1</v>
@@ -11512,10 +11488,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="F301" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="G301" t="n">
         <v>3</v>
@@ -11541,10 +11517,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="F302" t="s">
-        <v>594</v>
+        <v>165</v>
       </c>
       <c r="G302" t="n">
         <v>3</v>
@@ -11570,10 +11546,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="F303" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="G303" t="n">
         <v>1</v>
@@ -11599,10 +11575,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="F304" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="G304" t="n">
         <v>1</v>
@@ -11628,10 +11604,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="F305" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="G305" t="n">
         <v>8</v>
@@ -11657,10 +11633,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
+        <v>136</v>
+      </c>
+      <c r="F306" t="s">
         <v>137</v>
-      </c>
-      <c r="F306" t="s">
-        <v>138</v>
       </c>
       <c r="G306" t="n">
         <v>1</v>
@@ -11686,10 +11662,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="F307" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="G307" t="n">
         <v>1</v>
@@ -11715,10 +11691,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="F308" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="G308" t="n">
         <v>1</v>
@@ -11744,10 +11720,10 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="F309" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="G309" t="n">
         <v>7</v>
@@ -11773,10 +11749,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="F310" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="G310" t="n">
         <v>1</v>
@@ -11802,10 +11778,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="F311" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="G311" t="n">
         <v>1</v>
@@ -11831,10 +11807,10 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="F312" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="G312" t="n">
         <v>1</v>
@@ -11860,10 +11836,10 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="F313" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="G313" t="n">
         <v>1</v>
@@ -11889,10 +11865,10 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="F314" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="G314" t="n">
         <v>1</v>
@@ -11918,10 +11894,10 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="F315" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="G315" t="n">
         <v>1</v>
@@ -11947,10 +11923,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="F316" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="G316" t="n">
         <v>1</v>
@@ -11976,10 +11952,10 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="F317" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="G317" t="n">
         <v>1</v>
@@ -12005,10 +11981,10 @@
         <v>317</v>
       </c>
       <c r="E318" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="F318" t="s">
-        <v>624</v>
+        <v>10</v>
       </c>
       <c r="G318" t="n">
         <v>1</v>
@@ -12034,10 +12010,10 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="F319" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="G319" t="n">
         <v>1</v>
@@ -12063,10 +12039,10 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="F320" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="G320" t="n">
         <v>1</v>
@@ -12092,10 +12068,10 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="F321" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="G321" t="n">
         <v>2</v>
@@ -12121,10 +12097,10 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="F322" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="G322" t="n">
         <v>7</v>
@@ -12150,10 +12126,10 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="F323" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="G323" t="n">
         <v>1</v>
@@ -12179,10 +12155,10 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="F324" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="G324" t="n">
         <v>1</v>
@@ -12208,10 +12184,10 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="F325" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="G325" t="n">
         <v>1</v>
@@ -12237,10 +12213,10 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="F326" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="G326" t="n">
         <v>1</v>
@@ -12266,10 +12242,10 @@
         <v>326</v>
       </c>
       <c r="E327" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="F327" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="G327" t="n">
         <v>1</v>
@@ -12295,10 +12271,10 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="F328" t="s">
-        <v>644</v>
+        <v>318</v>
       </c>
       <c r="G328" t="n">
         <v>1</v>
@@ -12324,10 +12300,10 @@
         <v>328</v>
       </c>
       <c r="E329" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="F329" t="s">
-        <v>646</v>
+        <v>640</v>
       </c>
       <c r="G329" t="n">
         <v>2</v>
@@ -12353,10 +12329,10 @@
         <v>329</v>
       </c>
       <c r="E330" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
       <c r="F330" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="G330" t="n">
         <v>1</v>
@@ -12382,10 +12358,10 @@
         <v>330</v>
       </c>
       <c r="E331" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="F331" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
       <c r="G331" t="n">
         <v>1</v>
@@ -12411,10 +12387,10 @@
         <v>331</v>
       </c>
       <c r="E332" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="F332" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="G332" t="n">
         <v>1</v>
@@ -12440,10 +12416,10 @@
         <v>332</v>
       </c>
       <c r="E333" t="s">
-        <v>653</v>
+        <v>647</v>
       </c>
       <c r="F333" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
       <c r="G333" t="n">
         <v>9</v>
@@ -12469,10 +12445,10 @@
         <v>333</v>
       </c>
       <c r="E334" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="F334" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="G334" t="n">
         <v>1</v>
@@ -12498,10 +12474,10 @@
         <v>334</v>
       </c>
       <c r="E335" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="F335" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
       <c r="G335" t="n">
         <v>2</v>
@@ -12527,10 +12503,10 @@
         <v>335</v>
       </c>
       <c r="E336" t="s">
-        <v>659</v>
+        <v>653</v>
       </c>
       <c r="F336" t="s">
-        <v>660</v>
+        <v>654</v>
       </c>
       <c r="G336" t="n">
         <v>1</v>
@@ -12556,10 +12532,10 @@
         <v>336</v>
       </c>
       <c r="E337" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
       <c r="F337" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="G337" t="n">
         <v>1</v>
@@ -12585,10 +12561,10 @@
         <v>337</v>
       </c>
       <c r="E338" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="F338" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
       <c r="G338" t="n">
         <v>11</v>
@@ -12614,10 +12590,10 @@
         <v>338</v>
       </c>
       <c r="E339" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
       <c r="F339" t="s">
-        <v>666</v>
+        <v>660</v>
       </c>
       <c r="G339" t="n">
         <v>1</v>
@@ -12643,10 +12619,10 @@
         <v>339</v>
       </c>
       <c r="E340" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
       <c r="F340" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
       <c r="G340" t="n">
         <v>1</v>
@@ -12672,10 +12648,10 @@
         <v>340</v>
       </c>
       <c r="E341" t="s">
-        <v>669</v>
+        <v>663</v>
       </c>
       <c r="F341" t="s">
-        <v>670</v>
+        <v>664</v>
       </c>
       <c r="G341" t="n">
         <v>1</v>
@@ -12701,10 +12677,10 @@
         <v>341</v>
       </c>
       <c r="E342" t="s">
-        <v>671</v>
+        <v>665</v>
       </c>
       <c r="F342" t="s">
-        <v>672</v>
+        <v>666</v>
       </c>
       <c r="G342" t="n">
         <v>1</v>
@@ -12730,10 +12706,10 @@
         <v>342</v>
       </c>
       <c r="E343" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
       <c r="F343" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
       <c r="G343" t="n">
         <v>1</v>
@@ -12759,10 +12735,10 @@
         <v>343</v>
       </c>
       <c r="E344" t="s">
-        <v>675</v>
+        <v>669</v>
       </c>
       <c r="F344" t="s">
-        <v>676</v>
+        <v>670</v>
       </c>
       <c r="G344" t="n">
         <v>1</v>
@@ -12788,10 +12764,10 @@
         <v>344</v>
       </c>
       <c r="E345" t="s">
-        <v>677</v>
+        <v>671</v>
       </c>
       <c r="F345" t="s">
-        <v>678</v>
+        <v>672</v>
       </c>
       <c r="G345" t="n">
         <v>1</v>
@@ -12817,10 +12793,10 @@
         <v>345</v>
       </c>
       <c r="E346" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="F346" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
       <c r="G346" t="n">
         <v>1</v>
@@ -12846,10 +12822,10 @@
         <v>346</v>
       </c>
       <c r="E347" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F347" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
       <c r="G347" t="n">
         <v>1</v>
@@ -12875,10 +12851,10 @@
         <v>347</v>
       </c>
       <c r="E348" t="s">
-        <v>683</v>
+        <v>677</v>
       </c>
       <c r="F348" t="s">
-        <v>684</v>
+        <v>678</v>
       </c>
       <c r="G348" t="n">
         <v>1</v>
@@ -12904,10 +12880,10 @@
         <v>348</v>
       </c>
       <c r="E349" t="s">
-        <v>685</v>
+        <v>679</v>
       </c>
       <c r="F349" t="s">
-        <v>686</v>
+        <v>680</v>
       </c>
       <c r="G349" t="n">
         <v>1</v>
@@ -12933,10 +12909,10 @@
         <v>349</v>
       </c>
       <c r="E350" t="s">
-        <v>687</v>
+        <v>681</v>
       </c>
       <c r="F350" t="s">
-        <v>688</v>
+        <v>682</v>
       </c>
       <c r="G350" t="n">
         <v>1</v>
@@ -12962,10 +12938,10 @@
         <v>350</v>
       </c>
       <c r="E351" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
       <c r="F351" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
       <c r="G351" t="n">
         <v>1</v>
@@ -12991,10 +12967,10 @@
         <v>351</v>
       </c>
       <c r="E352" t="s">
-        <v>691</v>
+        <v>685</v>
       </c>
       <c r="F352" t="s">
-        <v>692</v>
+        <v>686</v>
       </c>
       <c r="G352" t="n">
         <v>1</v>
@@ -13020,10 +12996,10 @@
         <v>352</v>
       </c>
       <c r="E353" t="s">
-        <v>693</v>
+        <v>687</v>
       </c>
       <c r="F353" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c r="G353" t="n">
         <v>1</v>
@@ -13049,10 +13025,10 @@
         <v>353</v>
       </c>
       <c r="E354" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
       <c r="F354" t="s">
-        <v>696</v>
+        <v>690</v>
       </c>
       <c r="G354" t="n">
         <v>1</v>
@@ -13078,10 +13054,10 @@
         <v>354</v>
       </c>
       <c r="E355" t="s">
-        <v>697</v>
+        <v>691</v>
       </c>
       <c r="F355" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
       <c r="G355" t="n">
         <v>1</v>
@@ -13107,10 +13083,10 @@
         <v>355</v>
       </c>
       <c r="E356" t="s">
-        <v>699</v>
+        <v>693</v>
       </c>
       <c r="F356" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="G356" t="n">
         <v>1</v>
@@ -13136,10 +13112,10 @@
         <v>356</v>
       </c>
       <c r="E357" t="s">
-        <v>701</v>
+        <v>695</v>
       </c>
       <c r="F357" t="s">
-        <v>702</v>
+        <v>696</v>
       </c>
       <c r="G357" t="n">
         <v>2</v>
@@ -13165,10 +13141,10 @@
         <v>357</v>
       </c>
       <c r="E358" t="s">
-        <v>703</v>
+        <v>697</v>
       </c>
       <c r="F358" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
       <c r="G358" t="n">
         <v>1</v>
@@ -13194,10 +13170,10 @@
         <v>358</v>
       </c>
       <c r="E359" t="s">
-        <v>705</v>
+        <v>699</v>
       </c>
       <c r="F359" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
       <c r="G359" t="n">
         <v>2</v>
@@ -13223,10 +13199,10 @@
         <v>359</v>
       </c>
       <c r="E360" t="s">
-        <v>707</v>
+        <v>701</v>
       </c>
       <c r="F360" t="s">
-        <v>708</v>
+        <v>702</v>
       </c>
       <c r="G360" t="n">
         <v>7</v>
@@ -13252,10 +13228,10 @@
         <v>360</v>
       </c>
       <c r="E361" t="s">
-        <v>709</v>
+        <v>703</v>
       </c>
       <c r="F361" t="s">
-        <v>710</v>
+        <v>704</v>
       </c>
       <c r="G361" t="n">
         <v>1</v>
@@ -13281,10 +13257,10 @@
         <v>361</v>
       </c>
       <c r="E362" t="s">
-        <v>711</v>
+        <v>705</v>
       </c>
       <c r="F362" t="s">
-        <v>712</v>
+        <v>706</v>
       </c>
       <c r="G362" t="n">
         <v>1</v>
@@ -13310,10 +13286,10 @@
         <v>362</v>
       </c>
       <c r="E363" t="s">
-        <v>713</v>
+        <v>707</v>
       </c>
       <c r="F363" t="s">
-        <v>714</v>
+        <v>708</v>
       </c>
       <c r="G363" t="n">
         <v>1</v>
@@ -13339,10 +13315,10 @@
         <v>363</v>
       </c>
       <c r="E364" t="s">
-        <v>715</v>
+        <v>709</v>
       </c>
       <c r="F364" t="s">
-        <v>716</v>
+        <v>710</v>
       </c>
       <c r="G364" t="n">
         <v>2</v>
@@ -13368,10 +13344,10 @@
         <v>364</v>
       </c>
       <c r="E365" t="s">
-        <v>717</v>
+        <v>711</v>
       </c>
       <c r="F365" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="G365" t="n">
         <v>1</v>
@@ -13397,10 +13373,10 @@
         <v>365</v>
       </c>
       <c r="E366" t="s">
-        <v>719</v>
+        <v>713</v>
       </c>
       <c r="F366" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="G366" t="n">
         <v>1</v>
@@ -13426,10 +13402,10 @@
         <v>366</v>
       </c>
       <c r="E367" t="s">
-        <v>721</v>
+        <v>715</v>
       </c>
       <c r="F367" t="s">
-        <v>722</v>
+        <v>716</v>
       </c>
       <c r="G367" t="n">
         <v>2</v>
@@ -13455,10 +13431,10 @@
         <v>367</v>
       </c>
       <c r="E368" t="s">
-        <v>723</v>
+        <v>717</v>
       </c>
       <c r="F368" t="s">
-        <v>724</v>
+        <v>718</v>
       </c>
       <c r="G368" t="n">
         <v>1</v>
@@ -13484,10 +13460,10 @@
         <v>368</v>
       </c>
       <c r="E369" t="s">
-        <v>725</v>
+        <v>719</v>
       </c>
       <c r="F369" t="s">
-        <v>726</v>
+        <v>720</v>
       </c>
       <c r="G369" t="n">
         <v>1</v>
@@ -13513,10 +13489,10 @@
         <v>369</v>
       </c>
       <c r="E370" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
       <c r="F370" t="s">
-        <v>728</v>
+        <v>722</v>
       </c>
       <c r="G370" t="n">
         <v>1</v>
@@ -13542,10 +13518,10 @@
         <v>370</v>
       </c>
       <c r="E371" t="s">
-        <v>729</v>
+        <v>723</v>
       </c>
       <c r="F371" t="s">
-        <v>730</v>
+        <v>724</v>
       </c>
       <c r="G371" t="n">
         <v>1</v>
@@ -13571,10 +13547,10 @@
         <v>371</v>
       </c>
       <c r="E372" t="s">
-        <v>731</v>
+        <v>725</v>
       </c>
       <c r="F372" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
       <c r="G372" t="n">
         <v>1</v>
@@ -13600,10 +13576,10 @@
         <v>372</v>
       </c>
       <c r="E373" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F373" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="G373" t="n">
         <v>3</v>
@@ -13629,10 +13605,10 @@
         <v>373</v>
       </c>
       <c r="E374" t="s">
-        <v>733</v>
+        <v>727</v>
       </c>
       <c r="F374" t="s">
-        <v>734</v>
+        <v>728</v>
       </c>
       <c r="G374" t="n">
         <v>1</v>
@@ -13658,10 +13634,10 @@
         <v>374</v>
       </c>
       <c r="E375" t="s">
-        <v>735</v>
+        <v>729</v>
       </c>
       <c r="F375" t="s">
-        <v>736</v>
+        <v>730</v>
       </c>
       <c r="G375" t="n">
         <v>1</v>
@@ -13687,10 +13663,10 @@
         <v>375</v>
       </c>
       <c r="E376" t="s">
-        <v>737</v>
+        <v>731</v>
       </c>
       <c r="F376" t="s">
-        <v>738</v>
+        <v>732</v>
       </c>
       <c r="G376" t="n">
         <v>1</v>
@@ -13716,10 +13692,10 @@
         <v>376</v>
       </c>
       <c r="E377" t="s">
-        <v>739</v>
+        <v>733</v>
       </c>
       <c r="F377" t="s">
-        <v>740</v>
+        <v>734</v>
       </c>
       <c r="G377" t="n">
         <v>1</v>
@@ -13745,10 +13721,10 @@
         <v>377</v>
       </c>
       <c r="E378" t="s">
-        <v>741</v>
+        <v>735</v>
       </c>
       <c r="F378" t="s">
-        <v>742</v>
+        <v>736</v>
       </c>
       <c r="G378" t="n">
         <v>2</v>
@@ -13774,10 +13750,10 @@
         <v>378</v>
       </c>
       <c r="E379" t="s">
-        <v>743</v>
+        <v>737</v>
       </c>
       <c r="F379" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
       <c r="G379" t="n">
         <v>1</v>
@@ -13803,10 +13779,10 @@
         <v>379</v>
       </c>
       <c r="E380" t="s">
-        <v>745</v>
+        <v>739</v>
       </c>
       <c r="F380" t="s">
-        <v>746</v>
+        <v>740</v>
       </c>
       <c r="G380" t="n">
         <v>1</v>
@@ -13832,10 +13808,10 @@
         <v>380</v>
       </c>
       <c r="E381" t="s">
-        <v>747</v>
+        <v>741</v>
       </c>
       <c r="F381" t="s">
-        <v>748</v>
+        <v>742</v>
       </c>
       <c r="G381" t="n">
         <v>2</v>
@@ -13861,10 +13837,10 @@
         <v>381</v>
       </c>
       <c r="E382" t="s">
-        <v>749</v>
+        <v>743</v>
       </c>
       <c r="F382" t="s">
-        <v>750</v>
+        <v>744</v>
       </c>
       <c r="G382" t="n">
         <v>1</v>
@@ -13890,10 +13866,10 @@
         <v>382</v>
       </c>
       <c r="E383" t="s">
-        <v>751</v>
+        <v>745</v>
       </c>
       <c r="F383" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="G383" t="n">
         <v>1</v>
@@ -13919,10 +13895,10 @@
         <v>383</v>
       </c>
       <c r="E384" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F384" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="G384" t="n">
         <v>2</v>
@@ -13948,10 +13924,10 @@
         <v>384</v>
       </c>
       <c r="E385" t="s">
-        <v>753</v>
+        <v>747</v>
       </c>
       <c r="F385" t="s">
-        <v>754</v>
+        <v>748</v>
       </c>
       <c r="G385" t="n">
         <v>1</v>
@@ -13977,10 +13953,10 @@
         <v>385</v>
       </c>
       <c r="E386" t="s">
-        <v>755</v>
+        <v>749</v>
       </c>
       <c r="F386" t="s">
-        <v>756</v>
+        <v>750</v>
       </c>
       <c r="G386" t="n">
         <v>1</v>
@@ -14006,10 +13982,10 @@
         <v>386</v>
       </c>
       <c r="E387" t="s">
-        <v>757</v>
+        <v>751</v>
       </c>
       <c r="F387" t="s">
-        <v>758</v>
+        <v>752</v>
       </c>
       <c r="G387" t="n">
         <v>7</v>
@@ -14035,10 +14011,10 @@
         <v>387</v>
       </c>
       <c r="E388" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
       <c r="F388" t="s">
-        <v>760</v>
+        <v>754</v>
       </c>
       <c r="G388" t="n">
         <v>1</v>
@@ -14064,10 +14040,10 @@
         <v>388</v>
       </c>
       <c r="E389" t="s">
-        <v>761</v>
+        <v>755</v>
       </c>
       <c r="F389" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="G389" t="n">
         <v>1</v>
@@ -14093,10 +14069,10 @@
         <v>389</v>
       </c>
       <c r="E390" t="s">
-        <v>763</v>
+        <v>757</v>
       </c>
       <c r="F390" t="s">
-        <v>764</v>
+        <v>758</v>
       </c>
       <c r="G390" t="n">
         <v>1</v>
@@ -14122,10 +14098,10 @@
         <v>390</v>
       </c>
       <c r="E391" t="s">
-        <v>765</v>
+        <v>759</v>
       </c>
       <c r="F391" t="s">
-        <v>766</v>
+        <v>760</v>
       </c>
       <c r="G391" t="n">
         <v>1</v>
@@ -14151,10 +14127,10 @@
         <v>391</v>
       </c>
       <c r="E392" t="s">
-        <v>767</v>
+        <v>761</v>
       </c>
       <c r="F392" t="s">
-        <v>768</v>
+        <v>762</v>
       </c>
       <c r="G392" t="n">
         <v>1</v>
@@ -14180,10 +14156,10 @@
         <v>392</v>
       </c>
       <c r="E393" t="s">
-        <v>769</v>
+        <v>763</v>
       </c>
       <c r="F393" t="s">
-        <v>770</v>
+        <v>764</v>
       </c>
       <c r="G393" t="n">
         <v>1</v>
@@ -14209,10 +14185,10 @@
         <v>393</v>
       </c>
       <c r="E394" t="s">
-        <v>771</v>
+        <v>765</v>
       </c>
       <c r="F394" t="s">
-        <v>772</v>
+        <v>766</v>
       </c>
       <c r="G394" t="n">
         <v>1</v>
@@ -14238,10 +14214,10 @@
         <v>394</v>
       </c>
       <c r="E395" t="s">
-        <v>773</v>
+        <v>767</v>
       </c>
       <c r="F395" t="s">
-        <v>774</v>
+        <v>768</v>
       </c>
       <c r="G395" t="n">
         <v>56</v>
@@ -14267,10 +14243,10 @@
         <v>395</v>
       </c>
       <c r="E396" t="s">
-        <v>775</v>
+        <v>769</v>
       </c>
       <c r="F396" t="s">
-        <v>776</v>
+        <v>22</v>
       </c>
       <c r="G396" t="n">
         <v>4</v>
@@ -14296,10 +14272,10 @@
         <v>396</v>
       </c>
       <c r="E397" t="s">
-        <v>741</v>
+        <v>735</v>
       </c>
       <c r="F397" t="s">
-        <v>742</v>
+        <v>736</v>
       </c>
       <c r="G397" t="n">
         <v>1</v>
@@ -14325,10 +14301,10 @@
         <v>397</v>
       </c>
       <c r="E398" t="s">
-        <v>777</v>
+        <v>770</v>
       </c>
       <c r="F398" t="s">
-        <v>778</v>
+        <v>771</v>
       </c>
       <c r="G398" t="n">
         <v>1</v>
@@ -14354,10 +14330,10 @@
         <v>398</v>
       </c>
       <c r="E399" t="s">
-        <v>779</v>
+        <v>772</v>
       </c>
       <c r="F399" t="s">
-        <v>780</v>
+        <v>773</v>
       </c>
       <c r="G399" t="n">
         <v>1</v>
@@ -14383,10 +14359,10 @@
         <v>399</v>
       </c>
       <c r="E400" t="s">
-        <v>781</v>
+        <v>774</v>
       </c>
       <c r="F400" t="s">
-        <v>782</v>
+        <v>775</v>
       </c>
       <c r="G400" t="n">
         <v>1</v>
@@ -14412,10 +14388,10 @@
         <v>400</v>
       </c>
       <c r="E401" t="s">
-        <v>783</v>
+        <v>776</v>
       </c>
       <c r="F401" t="s">
-        <v>784</v>
+        <v>777</v>
       </c>
       <c r="G401" t="n">
         <v>1</v>
@@ -14441,10 +14417,10 @@
         <v>401</v>
       </c>
       <c r="E402" t="s">
-        <v>785</v>
+        <v>778</v>
       </c>
       <c r="F402" t="s">
-        <v>786</v>
+        <v>779</v>
       </c>
       <c r="G402" t="n">
         <v>1</v>
@@ -14470,10 +14446,10 @@
         <v>402</v>
       </c>
       <c r="E403" t="s">
-        <v>787</v>
+        <v>780</v>
       </c>
       <c r="F403" t="s">
-        <v>788</v>
+        <v>781</v>
       </c>
       <c r="G403" t="n">
         <v>1</v>
@@ -14499,10 +14475,10 @@
         <v>403</v>
       </c>
       <c r="E404" t="s">
-        <v>789</v>
+        <v>782</v>
       </c>
       <c r="F404" t="s">
-        <v>790</v>
+        <v>783</v>
       </c>
       <c r="G404" t="n">
         <v>1</v>
@@ -14528,10 +14504,10 @@
         <v>404</v>
       </c>
       <c r="E405" t="s">
-        <v>791</v>
+        <v>784</v>
       </c>
       <c r="F405" t="s">
-        <v>792</v>
+        <v>785</v>
       </c>
       <c r="G405" t="n">
         <v>1</v>
@@ -14557,10 +14533,10 @@
         <v>405</v>
       </c>
       <c r="E406" t="s">
-        <v>793</v>
+        <v>786</v>
       </c>
       <c r="F406" t="s">
-        <v>794</v>
+        <v>787</v>
       </c>
       <c r="G406" t="n">
         <v>1</v>
@@ -14615,10 +14591,10 @@
         <v>407</v>
       </c>
       <c r="E408" t="s">
-        <v>795</v>
+        <v>788</v>
       </c>
       <c r="F408" t="s">
-        <v>796</v>
+        <v>789</v>
       </c>
       <c r="G408" t="n">
         <v>1</v>
@@ -14644,10 +14620,10 @@
         <v>408</v>
       </c>
       <c r="E409" t="s">
-        <v>707</v>
+        <v>701</v>
       </c>
       <c r="F409" t="s">
-        <v>708</v>
+        <v>702</v>
       </c>
       <c r="G409" t="n">
         <v>1</v>
@@ -14673,10 +14649,10 @@
         <v>409</v>
       </c>
       <c r="E410" t="s">
-        <v>701</v>
+        <v>695</v>
       </c>
       <c r="F410" t="s">
-        <v>702</v>
+        <v>696</v>
       </c>
       <c r="G410" t="n">
         <v>1</v>
@@ -14702,10 +14678,10 @@
         <v>410</v>
       </c>
       <c r="E411" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F411" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="G411" t="n">
         <v>1</v>
@@ -14731,10 +14707,10 @@
         <v>411</v>
       </c>
       <c r="E412" t="s">
-        <v>797</v>
+        <v>790</v>
       </c>
       <c r="F412" t="s">
-        <v>798</v>
+        <v>734</v>
       </c>
       <c r="G412" t="n">
         <v>1</v>
@@ -14760,10 +14736,10 @@
         <v>412</v>
       </c>
       <c r="E413" t="s">
-        <v>747</v>
+        <v>741</v>
       </c>
       <c r="F413" t="s">
-        <v>748</v>
+        <v>742</v>
       </c>
       <c r="G413" t="n">
         <v>1</v>
@@ -14789,10 +14765,10 @@
         <v>413</v>
       </c>
       <c r="E414" t="s">
-        <v>715</v>
+        <v>709</v>
       </c>
       <c r="F414" t="s">
-        <v>716</v>
+        <v>710</v>
       </c>
       <c r="G414" t="n">
         <v>1</v>
@@ -14818,10 +14794,10 @@
         <v>414</v>
       </c>
       <c r="E415" t="s">
-        <v>799</v>
+        <v>791</v>
       </c>
       <c r="F415" t="s">
-        <v>800</v>
+        <v>792</v>
       </c>
       <c r="G415" t="n">
         <v>1</v>
@@ -14847,10 +14823,10 @@
         <v>415</v>
       </c>
       <c r="E416" t="s">
-        <v>721</v>
+        <v>715</v>
       </c>
       <c r="F416" t="s">
-        <v>722</v>
+        <v>716</v>
       </c>
       <c r="G416" t="n">
         <v>1</v>
@@ -14876,10 +14852,10 @@
         <v>416</v>
       </c>
       <c r="E417" t="s">
-        <v>685</v>
+        <v>679</v>
       </c>
       <c r="F417" t="s">
-        <v>686</v>
+        <v>680</v>
       </c>
       <c r="G417" t="n">
         <v>1</v>
@@ -14905,10 +14881,10 @@
         <v>417</v>
       </c>
       <c r="E418" t="s">
-        <v>801</v>
+        <v>793</v>
       </c>
       <c r="F418" t="s">
-        <v>802</v>
+        <v>794</v>
       </c>
       <c r="G418" t="n">
         <v>1</v>
@@ -14934,10 +14910,10 @@
         <v>418</v>
       </c>
       <c r="E419" t="s">
-        <v>803</v>
+        <v>795</v>
       </c>
       <c r="F419" t="s">
-        <v>804</v>
+        <v>796</v>
       </c>
       <c r="G419" t="n">
         <v>1</v>
@@ -14963,10 +14939,10 @@
         <v>419</v>
       </c>
       <c r="E420" t="s">
-        <v>805</v>
+        <v>797</v>
       </c>
       <c r="F420" t="s">
-        <v>806</v>
+        <v>798</v>
       </c>
       <c r="G420" t="n">
         <v>1</v>
@@ -14992,10 +14968,10 @@
         <v>420</v>
       </c>
       <c r="E421" t="s">
-        <v>807</v>
+        <v>799</v>
       </c>
       <c r="F421" t="s">
-        <v>808</v>
+        <v>800</v>
       </c>
       <c r="G421" t="n">
         <v>13</v>
@@ -15021,10 +14997,10 @@
         <v>421</v>
       </c>
       <c r="E422" t="s">
-        <v>807</v>
+        <v>799</v>
       </c>
       <c r="F422" t="s">
-        <v>809</v>
+        <v>801</v>
       </c>
       <c r="G422" t="n">
         <v>1</v>
